--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - CCH Integration 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - CCH Integration 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">IMP_DISPLAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
   </si>
 </sst>
 </file>
@@ -162,15 +165,15 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.7627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.5209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,6 +218,17 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - CCH Integration 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - CCH Integration 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">IMP_DISPLAYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
   </si>
 </sst>
 </file>
@@ -165,15 +162,15 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.7627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,17 +215,6 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
